--- a/火焰乱舞.xlsx
+++ b/火焰乱舞.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\learn\ciel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26BB713-B780-4A7C-9D97-3E6C4EC4D44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD7012D-FB14-4C02-BC2C-B684F1886BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="3000" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学成在线练习(基本布局)" sheetId="1" r:id="rId1"/>
     <sheet name="淘宝焦点图(绝对定位)" sheetId="2" r:id="rId2"/>
+    <sheet name="土豆案例" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,7 +364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -390,9 +391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197C86C1-F9B9-4715-9D71-25264547A7E9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,4 +415,38 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EC420D-39C1-4039-BC75-7E0DB8EF1FDE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>